--- a/examples/ReaderTestCorrupted5.xlsx
+++ b/examples/ReaderTestCorrupted5.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\php\ws-stolem-dev\stolem\vendor\przeslijmi\xlsxpeasant\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCCDE3D-FEEB-4AE9-9575-4280930EC6F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F715944-AE2B-4C4E-8B6C-56DBB171FB08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{1C13D4AA-D4E7-4D5D-8AE4-4CC3650298B6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{1C13D4AA-D4E7-4D5D-8AE4-4CC3650298B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Column1</t>
   </si>
@@ -49,6 +50,15 @@
   </si>
   <si>
     <t>Data.2.2.</t>
+  </si>
+  <si>
+    <t>Free cell B1</t>
+  </si>
+  <si>
+    <t>Free cell C2</t>
+  </si>
+  <si>
+    <t>Free cell B3</t>
   </si>
 </sst>
 </file>
@@ -105,24 +115,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BA3E5126-971C-4ACD-8881-13815F37F053}" name="Table1" displayName="Table1" ref="A1:B3" totalsRowShown="0">
-  <autoFilter ref="A1:B3" xr:uid="{61FCCA6B-93E4-4991-A372-9E0B82ABBAB2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BA3E5126-971C-4ACD-8881-13815F37F053}" name="Table1" displayName="Table1" ref="A1:Q20" totalsRowShown="0">
+  <autoFilter ref="A1:Q20" xr:uid="{61FCCA6B-93E4-4991-A372-9E0B82ABBAB2}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{89FB55FE-7F68-46F1-A2DF-70567A81AB3E}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{6CC18CA0-2A99-4D61-A201-ADFDA8991D7D}" name="Column2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" displayName="Table2" id="1" mc:Ignorable="xr xr3" name="Table2" totalsRowShown="0" xr:uid="{593D6B73-5767-4B1B-B34F-0AD2DF8A1208}">
-  <autoFilter xr:uid="{9CBC9973-F2A5-4C01-9EC4-187E036F5249}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Column1" xr3:uid="{05C0DF06-7BC2-4E9C-8D4E-44EBB3B6594B}"/>
-    <tableColumn id="2" name="Column2" xr3:uid="{AD66A093-755A-443A-97E1-C2B5003E6B77}"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
@@ -423,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD3DBEE-F040-4408-836A-4934503AFB91}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -434,7 +433,7 @@
     <col min="1" max="2" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -442,7 +441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -450,41 +449,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
+  <tableParts count="1">
     <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAAFD3C2-FA56-4250-B6FC-FC3B2713A340}">
+  <dimension ref="B1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>